--- a/2024 招工.xlsx
+++ b/2024 招工.xlsx
@@ -459,8 +459,9 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="31"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="49"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -591,7 +592,7 @@
         <v>Ongoing</v>
       </c>
       <c r="D8" s="1" t="str">
-        <v>用另一个账号</v>
+        <v>用另一个账号, transfer to SDE II, Machine Learning, Search</v>
       </c>
       <c r="E8" s="1" t="str">
         <v>5.17 内推</v>
@@ -601,6 +602,15 @@
       </c>
       <c r="G8" s="1" t="str">
         <v>5.30 BA通过</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <v>6.5 HR call</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <v>6.7 提供vo时间</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <v>6.20 4round back2back vo</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="9">
@@ -662,7 +672,7 @@
         <v>SDE II Customer Obsession Personalization </v>
       </c>
       <c r="C12" t="str">
-        <v>Ongoing</v>
+        <v>Rejected</v>
       </c>
       <c r="D12" s="1" t="str">
         <v>用了outlook邮箱，另外账号</v>
@@ -670,29 +680,32 @@
       <c r="E12" s="1" t="str">
         <v>6.1 内推</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="str">
+      <c r="F12" s="1" t="str">
+        <v>6.7 内推人告诉已经rej了，没收到通知</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="19" r="13">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="str">
+        <v>Software Engineer II (Backend) - Fulfillment Logistics</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Ongoing</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <v>用了新账号，求爷爷告奶奶又要了内推</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <v>6.7 内推</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="str">
         <v>Otter.ai SDE</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B14" s="1" t="str">
         <v>SDE Backend</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Rejected</v>
-      </c>
-      <c r="E13" s="1" t="str">
-        <v>5.14 HR reach out</v>
-      </c>
-      <c r="F13" s="1" t="str">
-        <v>5.16 reject，说背景不匹配</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="str">
-        <v>SDE Search &amp; Rec</v>
       </c>
       <c r="C14" t="str">
         <v>Rejected</v>
@@ -705,54 +718,57 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="str">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="str">
+        <v>SDE Search &amp; Rec</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Rejected</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <v>5.14 HR reach out</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <v>5.16 reject，说背景不匹配</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="str">
         <v>Notion</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B16" s="1" t="str">
         <v>SDE</v>
       </c>
-      <c r="C15" t="str">
-        <v>Rejected</v>
-      </c>
-      <c r="E15" s="1" t="str">
-        <v>5.14 海投</v>
-      </c>
-      <c r="F15" s="1" t="str">
-        <v>5.22 rej</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="str" xml:space="preserve">
-        <v>Zillow </v>
-      </c>
-      <c r="B16" s="1" t="str">
-        <v>SDE AI Platform</v>
-      </c>
       <c r="C16" t="str">
-        <v>Ongoing</v>
+        <v>Rejected</v>
       </c>
       <c r="E16" s="1" t="str">
         <v>5.14 海投</v>
       </c>
+      <c r="F16" s="1" t="str">
+        <v>5.22 rej</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="str">
+      <c r="A17" s="1" t="str" xml:space="preserve">
+        <v>Zillow </v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <v>SDE AI Platform</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Ongoing</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <v>5.14 海投</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="str">
         <v>Stripe</v>
       </c>
-      <c r="B17" s="1" t="str">
+      <c r="B18" s="1" t="str">
         <v>SDE II Privacy Products</v>
-      </c>
-      <c r="C17" t="str">
-        <v>Ongoing</v>
-      </c>
-      <c r="E17" s="1" t="str">
-        <v>5.16 内推</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1" t="str">
-        <v>SDE II Document Database</v>
       </c>
       <c r="C18" t="str">
         <v>Ongoing</v>
@@ -763,8 +779,8 @@
     </row>
     <row r="19">
       <c r="A19" s="2"/>
-      <c r="B19" s="1" t="str" xml:space="preserve">
-        <v>SDE II High Assurance </v>
+      <c r="B19" s="1" t="str">
+        <v>SDE II Document Database</v>
       </c>
       <c r="C19" t="str">
         <v>Ongoing</v>
@@ -774,23 +790,23 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="str">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1" t="str" xml:space="preserve">
+        <v>SDE II High Assurance </v>
+      </c>
+      <c r="C20" t="str">
+        <v>Ongoing</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <v>5.16 内推</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="str">
         <v>Lyft</v>
       </c>
-      <c r="B20" s="1" t="str">
+      <c r="B21" s="1" t="str">
         <v>SDE, Pricing</v>
-      </c>
-      <c r="C20" t="str">
-        <v>Ongoing</v>
-      </c>
-      <c r="E20" s="1" t="str">
-        <v>5.17 内推</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="str">
-        <v>SDE, Business Travel</v>
       </c>
       <c r="C21" t="str">
         <v>Ongoing</v>
@@ -800,11 +816,9 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="str">
-        <v>Microsoft</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="1" t="str">
-        <v>SDE, Azure Resource Graph</v>
+        <v>SDE, Business Travel</v>
       </c>
       <c r="C22" t="str">
         <v>Ongoing</v>
@@ -814,15 +828,14 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="str">
+        <v>Microsoft</v>
+      </c>
       <c r="B23" s="1" t="str">
-        <v>SDE</v>
+        <v>SDE, Azure Resource Graph</v>
       </c>
       <c r="C23" t="str">
         <v>Ongoing</v>
-      </c>
-      <c r="D23" s="1" t="str">
-        <v>看不出来啥team</v>
       </c>
       <c r="E23" s="1" t="str">
         <v>5.17 内推</v>
@@ -831,10 +844,13 @@
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="str">
-        <v>SDE, Semantic Fabric</v>
+        <v>SDE</v>
       </c>
       <c r="C24" t="str">
         <v>Ongoing</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <v>看不出来啥team</v>
       </c>
       <c r="E24" s="1" t="str">
         <v>5.17 内推</v>
@@ -843,7 +859,7 @@
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="str">
-        <v>SDE, Azure Storage</v>
+        <v>SDE, Semantic Fabric</v>
       </c>
       <c r="C25" t="str">
         <v>Ongoing</v>
@@ -855,7 +871,7 @@
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="str">
-        <v>SDE, Azure Resource Graph</v>
+        <v>SDE, Azure Storage</v>
       </c>
       <c r="C26" t="str">
         <v>Ongoing</v>
@@ -867,7 +883,7 @@
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="str">
-        <v>SDE, Azure Customer Experience</v>
+        <v>SDE, Azure Resource Graph</v>
       </c>
       <c r="C27" t="str">
         <v>Ongoing</v>
@@ -878,84 +894,77 @@
     </row>
     <row r="28">
       <c r="A28" s="1"/>
-      <c r="B28" s="1" t="str" xml:space="preserve">
+      <c r="B28" s="1" t="str">
+        <v>SDE, Azure Customer Experience</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Ongoing</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <v>5.17 内推</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="str" xml:space="preserve">
         <v>SDE, Azure Storage </v>
       </c>
-      <c r="C28" t="str">
-        <v>Ongoing</v>
-      </c>
-      <c r="D28" s="1" t="str">
+      <c r="C29" t="str">
+        <v>Ongoing</v>
+      </c>
+      <c r="D29" s="1" t="str">
         <v>内推的，但是系统没显示</v>
       </c>
-      <c r="E28" s="1" t="str">
+      <c r="E29" s="1" t="str">
         <v>5.17 投递</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="str">
-        <v>LinkedIn</v>
-      </c>
-      <c r="B29" s="1" t="str">
-        <v>AI Engineer - Trust (Anti-Abuse)</v>
-      </c>
-      <c r="C29" t="str">
-        <v>Ongoing</v>
-      </c>
-      <c r="E29" s="1" t="str">
-        <v>5.21 内推</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="str">
-        <v>Addepar</v>
+        <v>LinkedIn</v>
       </c>
       <c r="B30" s="1" t="str">
-        <v>Software Engineer II - Addepar Data Exchange</v>
+        <v>AI Engineer - Trust (Anti-Abuse)</v>
       </c>
       <c r="C30" t="str">
         <v>Ongoing</v>
       </c>
       <c r="E30" s="1" t="str">
-        <v>5.29 海投</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="str">
-        <v>Verkada</v>
-      </c>
+        <v>5.21 内推</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="19" r="31">
+      <c r="A31" s="1"/>
       <c r="B31" s="1" t="str">
-        <v>Backend Software Engineer - Core Services</v>
+        <v>Senior Engineer, Ads Machine Learning Systems</v>
       </c>
       <c r="C31" t="str">
         <v>Ongoing</v>
       </c>
       <c r="E31" s="1" t="str">
-        <v>5.29 海投</v>
+        <v>6.6 内推</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="str">
-        <v>DataDog</v>
+        <v>Addepar</v>
       </c>
       <c r="B32" s="1" t="str">
-        <v>Software Engineer - Serverless</v>
+        <v>Software Engineer II - Addepar Data Exchange</v>
       </c>
       <c r="C32" t="str">
-        <v>Rejected</v>
+        <v>Ongoing</v>
       </c>
       <c r="E32" s="1" t="str">
         <v>5.29 海投</v>
       </c>
-      <c r="F32" s="1" t="str">
-        <v>6.1 rej</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="str">
-        <v>Atlassian</v>
+        <v>Verkada</v>
       </c>
       <c r="B33" s="1" t="str">
-        <v>Software Engineer, Media &amp; Intelligence at Loom</v>
+        <v>Backend Software Engineer - Core Services</v>
       </c>
       <c r="C33" t="str">
         <v>Ongoing</v>
@@ -966,31 +975,94 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="str">
-        <v>Moveworks</v>
+        <v>DataDog</v>
       </c>
       <c r="B34" s="1" t="str">
-        <v>Software Engineer, Core Platform</v>
+        <v>Software Engineer - Serverless</v>
       </c>
       <c r="C34" t="str">
-        <v>Ongoing</v>
+        <v>Rejected</v>
       </c>
       <c r="E34" s="1" t="str">
         <v>5.29 海投</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <v>6.1 rej</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="str">
+        <v>Atlassian</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <v>Software Engineer, Media &amp; Intelligence at Loom</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Ongoing</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <v>5.29 海投</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="str">
+        <v>Moveworks</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <v>Software Engineer, Core Platform</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Ongoing</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <v>5.29 海投</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="str">
+        <v>Snap</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <v>MLE 1y</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Ongoing</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <v>没等来内推，海投了</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <v>6.7 海投</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="str">
+        <v>Waymo</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <v>Software Engineer, ML and Data Infra</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Ongoing</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <v>6.7 海投</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="E1:M1"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A30:A31"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" showErrorMessage="true" sqref="C2:C204" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" showErrorMessage="true" sqref="C2:C206" type="list">
       <formula1>"Pending,Ongoing,Offer,Rejected"</formula1>
     </dataValidation>
   </dataValidations>
